--- a/my_app/output/Combined.xlsx
+++ b/my_app/output/Combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CO2 Emissions (tonnes of CO2)</t>
   </si>
@@ -23,7 +23,16 @@
     <t>File Names</t>
   </si>
   <si>
-    <t>Operator1 (2).Xlsx</t>
+    <t>Operator4.Xlsx</t>
+  </si>
+  <si>
+    <t>Operator5.Xlsx</t>
+  </si>
+  <si>
+    <t>Operator2.Xlsx</t>
+  </si>
+  <si>
+    <t>Operator3.Xlsx</t>
   </si>
   <si>
     <t>Operator1.Xlsx</t>
@@ -384,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A446"/>
+  <dimension ref="A1:A1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,2227 +406,5052 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2108</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2110</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2112</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2114</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2116</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2118</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2120</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2122</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2124</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2126</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>2128</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2130</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>2132</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>4270</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>2138</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>2140</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>2142</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>2144</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>2146</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>2148</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>2150</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>2152</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>2154</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>2156</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>2158</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>2160</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>2162</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2164</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>2166</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>2168</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2170</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>2172</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>2174</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>2176</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>2178</v>
+        <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>2180</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>2182</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>2184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2186</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>2188</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>2190</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>2192</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>2194</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2196</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>2198</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>2200</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2202</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>2204</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>2206</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2208</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>2210</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>2212</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>2214</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>2216</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>2218</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>2220</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>2222</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>2224</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>2226</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>2228</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2234</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>2236</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>2238</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>2240</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>2242</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>2230</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>2232</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>2244</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>2246</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>2248</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>2250</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2252</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>2254</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>2256</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>2258</v>
+        <v>688</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>2260</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>2262</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>2264</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>2266</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>2268</v>
+        <v>862</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>2270</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>2272</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>2274</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>2276</v>
+        <v>689</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>2278</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>2280</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>2282</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>2284</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>2286</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>2288</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>2290</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>2292</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2296</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>2298</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>2300</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>2302</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>2304</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>2306</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>2308</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>2310</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>2312</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>2314</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>2316</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>2318</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2320</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>2322</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>2324</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>2326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>2328</v>
+        <v>695</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>2330</v>
+        <v>291</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>2332</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>2334</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2336</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>2338</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>2340</v>
+        <v>696</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>2342</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>2344</v>
+        <v>697</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>2346</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>2348</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>2350</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>2352</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>2354</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>2356</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>2358</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>2360</v>
+        <v>700</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>2362</v>
+        <v>701</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>2364</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>2386</v>
+        <v>702</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>2366</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>2368</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>2370</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>2372</v>
+        <v>703</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>2374</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>2376</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>2378</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>2380</v>
+        <v>526</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>2382</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>2384</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>2388</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>2390</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>2392</v>
+        <v>705</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>2394</v>
+        <v>706</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>2396</v>
+        <v>707</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>2398</v>
+        <v>708</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>2400</v>
+        <v>709</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>2402</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>2404</v>
+        <v>762</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>2406</v>
+        <v>764</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>2408</v>
+        <v>712</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>2410</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>2412</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>2414</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>2416</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>2418</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>2420</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>2422</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>2424</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>2426</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>2428</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>2430</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>2432</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>2434</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>2436</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>2438</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>2440</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>2442</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>2444</v>
+        <v>713</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>2446</v>
+        <v>714</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>2448</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>2450</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>2452</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>2454</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>2456</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>2458</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>2460</v>
+        <v>716</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>2462</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>2464</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>2466</v>
+        <v>718</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2468</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>2470</v>
+        <v>719</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>2472</v>
+        <v>811</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>2474</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>2476</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>2478</v>
+        <v>808</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>2480</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>2482</v>
+        <v>724</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>2484</v>
+        <v>725</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>2486</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>2488</v>
+        <v>727</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>2490</v>
+        <v>728</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>2492</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>2494</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>2496</v>
+        <v>730</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>2498</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>2500</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>2502</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2504</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2506</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2508</v>
+        <v>350</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>2510</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2512</v>
+        <v>886</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>2514</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>2516</v>
+        <v>734</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2518</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>2520</v>
+        <v>735</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>2522</v>
+        <v>109</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>2524</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2526</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>2528</v>
+        <v>736</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>2530</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>2532</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2534</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2536</v>
+        <v>114</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>2538</v>
+        <v>115</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>2540</v>
+        <v>853</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>2542</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>2544</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2546</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>2548</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>2550</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2552</v>
+        <v>741</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2554</v>
+        <v>742</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2556</v>
+        <v>743</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>2558</v>
+        <v>138</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>2560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>2562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>2564</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>2566</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>2568</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2570</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2572</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>2574</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>2576</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>2578</v>
+        <v>821</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>2580</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>2582</v>
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>2584</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>2586</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>2588</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>2590</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>2592</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>2594</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>2596</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>2598</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>2600</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>2602</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>2604</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>2606</v>
+        <v>140</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>2608</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>2610</v>
+        <v>142</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>2612</v>
+        <v>147</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2614</v>
+        <v>358</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>2616</v>
+        <v>894</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>2618</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>2620</v>
+        <v>148</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>2622</v>
+        <v>149</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>2624</v>
+        <v>150</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>2626</v>
+        <v>750</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>2628</v>
+        <v>359</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>2630</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>2632</v>
+        <v>902</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>2634</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>2636</v>
+        <v>305</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2638</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>2640</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>2642</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>2644</v>
+        <v>754</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>2646</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>2648</v>
+        <v>157</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>2650</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>2652</v>
+        <v>912</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>2654</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>2656</v>
+        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>2658</v>
+        <v>757</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>2660</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>2662</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>2664</v>
+        <v>539</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>2666</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>2668</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>2670</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>2672</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>2674</v>
+        <v>540</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>2676</v>
+        <v>541</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>2678</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2680</v>
+        <v>762</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>2682</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2684</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>2686</v>
+        <v>162</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>2688</v>
+        <v>764</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>2690</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>2692</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>2694</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>2696</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>2698</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>2700</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>2702</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>2704</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>2706</v>
+        <v>364</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>2708</v>
+        <v>165</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>2710</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2712</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>2714</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>2716</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>2718</v>
+        <v>168</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>2720</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>2722</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>2724</v>
+        <v>172</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>2726</v>
+        <v>173</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>2728</v>
+        <v>175</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>2730</v>
+        <v>174</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>2732</v>
+        <v>176</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>2734</v>
+        <v>177</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>2736</v>
+        <v>769</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>2738</v>
+        <v>949</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>2740</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>2742</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>2744</v>
+        <v>178</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>2746</v>
+        <v>180</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>2748</v>
+        <v>952</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>2750</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>2752</v>
+        <v>182</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>2754</v>
+        <v>183</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>2756</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>2758</v>
+        <v>171</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>2760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>2762</v>
+        <v>159</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>2764</v>
+        <v>546</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>2766</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>2770</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>2772</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>2774</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>2768</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>2776</v>
+        <v>368</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>2778</v>
+        <v>369</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>2780</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>2782</v>
+        <v>191</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>2784</v>
+        <v>968</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>2786</v>
+        <v>370</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>2788</v>
+        <v>193</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>2790</v>
+        <v>194</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>2792</v>
+        <v>195</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>2794</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>2796</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>2798</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>2800</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>2802</v>
+        <v>201</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>2808</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>2804</v>
+        <v>780</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>2806</v>
+        <v>781</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>2810</v>
+        <v>782</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>2812</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>2814</v>
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>2816</v>
+        <v>783</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>2818</v>
+        <v>784</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>2820</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>2822</v>
+        <v>376</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>2824</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>2826</v>
+        <v>785</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>2828</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>2830</v>
+        <v>983</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>2832</v>
+        <v>198</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>2834</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>2836</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>2838</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>2840</v>
+        <v>789</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>2842</v>
+        <v>221</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>2844</v>
+        <v>550</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>2846</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>2848</v>
+        <v>790</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>2850</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>2852</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>2854</v>
+        <v>202</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>2856</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>2858</v>
+        <v>203</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>2860</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>2862</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>2864</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>2866</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>2868</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>2870</v>
+        <v>793</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>2872</v>
+        <v>794</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>2874</v>
+        <v>795</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>2876</v>
+        <v>552</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>2878</v>
+        <v>214</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>2880</v>
+        <v>212</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>2882</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>2884</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>2886</v>
+        <v>797</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>2888</v>
+        <v>215</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>2890</v>
+        <v>216</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>2892</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>2894</v>
+        <v>213</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>2896</v>
+        <v>799</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>2898</v>
+        <v>211</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>2900</v>
+        <v>218</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>2902</v>
+        <v>219</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>2904</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>2906</v>
+        <v>204</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>2908</v>
+        <v>554</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>2910</v>
+        <v>933</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>2912</v>
+        <v>379</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>2914</v>
+        <v>801</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>2916</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>2918</v>
+        <v>224</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>2920</v>
+        <v>225</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>2922</v>
+        <v>226</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>2924</v>
+        <v>802</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>2926</v>
+        <v>227</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>2928</v>
+        <v>223</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>2930</v>
+        <v>228</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>2932</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>2934</v>
+        <v>804</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>2936</v>
+        <v>805</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>2938</v>
+        <v>806</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>2940</v>
+        <v>807</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>2942</v>
+        <v>808</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>2944</v>
+        <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>2946</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>2948</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>2950</v>
+        <v>809</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>2952</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>2954</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>2956</v>
+        <v>810</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>2958</v>
+        <v>811</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>2960</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>2962</v>
+        <v>812</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>2964</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>2966</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>2968</v>
+        <v>814</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>2970</v>
+        <v>815</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>2972</v>
+        <v>239</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>2974</v>
+        <v>816</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>2976</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>2978</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>2980</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>2982</v>
+        <v>231</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>2984</v>
+        <v>818</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>2986</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>2988</v>
+        <v>819</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>2990</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>2992</v>
+        <v>235</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>2994</v>
+        <v>821</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>2996</v>
+        <v>236</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>2998</v>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011">
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +5461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2648,6 +5482,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/my_app/output/Combined.xlsx
+++ b/my_app/output/Combined.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CO2 Emissions (tonnes of CO2)</t>
   </si>
@@ -23,19 +23,16 @@
     <t>File Names</t>
   </si>
   <si>
-    <t>Operator4.Xlsx</t>
-  </si>
-  <si>
-    <t>Operator5.Xlsx</t>
+    <t>Operator1.Xlsx</t>
   </si>
   <si>
     <t>Operator2.Xlsx</t>
   </si>
   <si>
-    <t>Operator3.Xlsx</t>
+    <t>Operator4.Xlsx</t>
   </si>
   <si>
-    <t>Operator1.Xlsx</t>
+    <t>Operator5.Xlsx</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1011"/>
+  <dimension ref="A1:A965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,5046 +408,4816 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>512</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2223</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>322</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>656</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>323</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1380</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2039</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>662</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1058</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>665</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1725</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>326</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1060</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>327</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>1182</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>328</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1066</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2135</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1070</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>671</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>712</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>41</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>675</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>38</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1747</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>515</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>375</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>330</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>677</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>47</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1569</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>332</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>333</v>
+        <v>679</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1073</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>679</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1755</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>682</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2658</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1594</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1077</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1597</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>335</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>1020</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>48</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1080</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>1081</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>2104</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>1024</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1083</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>687</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>688</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1084</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>520</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>862</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>342</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>50</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>51</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>689</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>1089</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>522</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2305</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>1093</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>1094</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>691</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>692</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>693</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>1998</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1100</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1101</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>1102</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>1103</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1447</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>344</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>695</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>291</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1105</v>
+        <v>696</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>1631</v>
+        <v>697</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>696</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>697</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>1109</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>68</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>1110</v>
+        <v>700</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>2221</v>
+        <v>701</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>1113</v>
+        <v>702</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>700</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>701</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>54</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>154</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>1642</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>703</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>1823</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>69</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>526</v>
+        <v>705</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1647</v>
+        <v>706</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>1121</v>
+        <v>707</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>1115</v>
+        <v>708</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>1116</v>
+        <v>709</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>705</v>
+        <v>762</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>706</v>
+        <v>764</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>708</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>709</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>528</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>762</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>764</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>712</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>1122</v>
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>1123</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>1124</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>1207</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>347</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>1128</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>1130</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>1131</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>529</v>
+        <v>714</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>1132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>1663</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>1134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>1135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>1217</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>713</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>1936</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>87</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>88</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>348</v>
+        <v>719</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>89</v>
+        <v>811</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>716</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>90</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>717</v>
+        <v>808</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>718</v>
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>1138</v>
+        <v>724</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>811</v>
+        <v>726</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>92</v>
+        <v>727</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>2823</v>
+        <v>728</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>808</v>
+        <v>729</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>723</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>725</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1258</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>727</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>728</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1262</v>
+        <v>733</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>82</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>730</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1871</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>103</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1141</v>
+        <v>734</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2408</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>350</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>1143</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>886</v>
+        <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1144</v>
+        <v>736</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>734</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>1251</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>735</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>1608</v>
+        <v>115</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>111</v>
+        <v>853</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>736</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1147</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>113</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>114</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>115</v>
+        <v>741</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>853</v>
+        <v>742</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>107</v>
+        <v>743</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>1196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>2345</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1203</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>741</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>742</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>743</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>536</v>
+        <v>821</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>537</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>71</v>
+        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>1150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>74</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>75</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>1151</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>76</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>821</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>1152</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>745</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>1153</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>78</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>1233</v>
+        <v>140</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1228</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>2330</v>
+        <v>142</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>2331</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>1906</v>
+        <v>358</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>1159</v>
+        <v>894</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>1160</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>1161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>1302</v>
+        <v>750</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>142</v>
+        <v>359</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>147</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>358</v>
+        <v>902</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>894</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>1307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>148</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>149</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>150</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>359</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>902</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>144</v>
+        <v>912</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>305</v>
+        <v>185</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2419</v>
+        <v>757</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>2066</v>
+        <v>758</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1168</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>754</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>1169</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>157</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>2080</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>912</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>185</v>
+        <v>762</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>538</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>757</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>758</v>
+        <v>162</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>1930</v>
+        <v>764</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>539</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1172</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1173</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>2295</v>
+        <v>158</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1175</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>540</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>541</v>
+        <v>184</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>1123</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>762</v>
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>3006</v>
+        <v>768</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>162</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>764</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1178</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>1179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>1180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>158</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>1946</v>
+        <v>172</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>1948</v>
+        <v>173</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>2503</v>
+        <v>174</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>364</v>
+        <v>176</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>1312</v>
+        <v>769</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>1349</v>
+        <v>949</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1184</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1353</v>
+        <v>952</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>172</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>174</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>177</v>
+        <v>772</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>769</v>
+        <v>159</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>949</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>1187</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>1188</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>180</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>952</v>
+        <v>368</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>182</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>2062</v>
+        <v>968</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>171</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>772</v>
+        <v>193</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>546</v>
+        <v>195</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>2876</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1558</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>1301</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>187</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>1194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>368</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>369</v>
+        <v>780</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>2159</v>
+        <v>781</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>191</v>
+        <v>782</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>968</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>193</v>
+        <v>783</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>194</v>
+        <v>784</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>195</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>1755</v>
+        <v>376</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>3080</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>2539</v>
+        <v>785</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>1978</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>201</v>
+        <v>983</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>1400</v>
+        <v>198</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>780</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>781</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>782</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>1201</v>
+        <v>789</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>374</v>
+        <v>221</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>783</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>1577</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>376</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>1203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>785</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>1204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>983</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>198</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>2191</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>1206</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>3117</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>221</v>
+        <v>794</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>550</v>
+        <v>795</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>1208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>790</v>
+        <v>212</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>2771</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>1210</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>202</v>
+        <v>797</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>1211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>1212</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>1213</v>
+        <v>213</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>1214</v>
+        <v>799</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>2007</v>
+        <v>211</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>1216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>793</v>
+        <v>219</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>794</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>795</v>
+        <v>204</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>552</v>
+        <v>378</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>214</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>212</v>
+        <v>801</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>2014</v>
+        <v>224</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>797</v>
+        <v>225</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>216</v>
+        <v>802</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>1015</v>
+        <v>227</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>799</v>
+        <v>228</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>211</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>218</v>
+        <v>804</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>219</v>
+        <v>805</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>2991</v>
+        <v>806</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>204</v>
+        <v>807</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>554</v>
+        <v>808</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>933</v>
+        <v>380</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>379</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>801</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>1220</v>
+        <v>809</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>224</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>225</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>226</v>
+        <v>810</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>223</v>
+        <v>812</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>228</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>2802</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>804</v>
+        <v>814</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>806</v>
+        <v>239</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>808</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>380</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>1222</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>1223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>1224</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>1225</v>
+        <v>819</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>810</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>811</v>
+        <v>235</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>1226</v>
+        <v>821</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>812</v>
+        <v>236</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>2040</v>
+        <v>822</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>1228</v>
+        <v>823</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>814</v>
+        <v>237</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>239</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>816</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>1229</v>
+        <v>382</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>1230</v>
+        <v>827</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>2667</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>231</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>818</v>
+        <v>383</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>1232</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>819</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>1054</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>235</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>821</v>
+        <v>829</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>236</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>822</v>
+        <v>384</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>823</v>
+        <v>385</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>237</v>
+        <v>386</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>824</v>
+        <v>387</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>1057</v>
+        <v>388</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>1059</v>
+        <v>389</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>827</v>
+        <v>391</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>2062</v>
+        <v>393</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>383</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>1235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>1236</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>1237</v>
+        <v>833</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>1238</v>
+        <v>834</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>1239</v>
+        <v>395</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>384</v>
+        <v>230</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>385</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>386</v>
+        <v>837</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>946</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>388</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>389</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>391</v>
+        <v>840</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>1782</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>393</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>1225</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>2072</v>
+        <v>240</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>833</v>
+        <v>841</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>834</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>835</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>395</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>230</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>2077</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>837</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>2476</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>1236</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>1243</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>398</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>840</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>1244</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>1245</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>561</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>1808</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>241</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>240</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>841</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>563</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>564</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>1247</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>1248</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>1249</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>1250</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>1251</v>
+        <v>842</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>1252</v>
+        <v>843</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>1253</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>1254</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>1255</v>
+        <v>844</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>1257</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>1258</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>1259</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>1260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>1261</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>1262</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>1506</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>1508</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>1510</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>1665</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>1267</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>1268</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>1269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>1270</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>842</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>843</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>1271</v>
+        <v>845</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>1272</v>
+        <v>846</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>844</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>1273</v>
+        <v>848</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>1274</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>1275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>1276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>242</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>1277</v>
+        <v>402</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>1278</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>1279</v>
+        <v>850</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>1281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>1282</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>1283</v>
+        <v>851</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>1284</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>557</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>246</v>
+        <v>403</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>1285</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>1286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>1287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>845</v>
+        <v>255</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>846</v>
+        <v>256</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>565</v>
+        <v>257</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>3348</v>
+        <v>258</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>848</v>
+        <v>254</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>1289</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>248</v>
+        <v>852</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>249</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>3107</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>402</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>1291</v>
+        <v>207</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>250</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>1861</v>
+        <v>406</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>851</v>
+        <v>208</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>1294</v>
+        <v>857</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>1295</v>
+        <v>407</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>403</v>
+        <v>858</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>1547</v>
+        <v>859</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>252</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>256</v>
+        <v>860</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>258</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>254</v>
+        <v>861</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>1297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>852</v>
+        <v>862</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>1257</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>1465</v>
+        <v>409</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>2153</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>207</v>
+        <v>265</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>856</v>
+        <v>410</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>1299</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>1300</v>
+        <v>412</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>406</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>208</v>
+        <v>413</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>558</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>1426</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>407</v>
+        <v>269</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>858</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>859</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>1301</v>
+        <v>868</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>262</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>263</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>860</v>
+        <v>276</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>264</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>1302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>861</v>
+        <v>278</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>261</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>862</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>3404</v>
+        <v>872</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>409</v>
+        <v>283</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>1304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>410</v>
+        <v>284</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>1275</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>412</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>1305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>413</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>2171</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>1307</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>269</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>1137</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>1139</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>868</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>1578</v>
+        <v>415</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>1143</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>276</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>1145</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>277</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>278</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>1588</v>
+        <v>877</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>1151</v>
+        <v>878</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>872</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>282</v>
+        <v>880</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>281</v>
+        <v>881</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>284</v>
+        <v>882</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>2183</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>1142</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>285</v>
+        <v>885</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>3704</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>2461</v>
+        <v>886</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>1313</v>
+        <v>887</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>1314</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>1316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>1317</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>415</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>1318</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>1319</v>
+        <v>888</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>1320</v>
+        <v>889</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>1321</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>1322</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>572</v>
+        <v>892</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>877</v>
+        <v>290</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>878</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>573</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>1869</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>259</v>
+        <v>419</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>881</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>2206</v>
+        <v>95</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>2625</v>
+        <v>96</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>885</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>1325</v>
+        <v>98</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>887</v>
+        <v>99</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>1326</v>
+        <v>100</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>1327</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>288</v>
+        <v>896</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>1328</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>1329</v>
+        <v>897</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>1330</v>
+        <v>101</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>888</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>889</v>
+        <v>992</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>2639</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>575</v>
+        <v>102</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>576</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>1180</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>577</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>1470</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>290</v>
+        <v>902</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>1332</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>1333</v>
+        <v>903</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>1334</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>419</v>
+        <v>905</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>579</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>1755</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>95</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>96</v>
+        <v>423</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>1336</v>
+        <v>908</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>98</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>580</v>
+        <v>910</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>895</v>
+        <v>286</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>99</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>100</v>
+        <v>713</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>1337</v>
+        <v>911</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>896</v>
+        <v>56</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>1338</v>
+        <v>427</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>897</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>101</v>
+        <v>429</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>1339</v>
+        <v>59</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>992</v>
+        <v>913</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>1340</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>2754</v>
+        <v>61</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>2761</v>
+        <v>914</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>2244</v>
+        <v>431</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>1344</v>
+        <v>977</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>902</v>
+        <v>63</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>1345</v>
+        <v>980</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>903</v>
+        <v>917</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>2831</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>905</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>1488</v>
+        <v>920</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>907</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>1932</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>423</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>908</v>
+        <v>292</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>3267</v>
+        <v>922</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>910</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>286</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>1776</v>
+        <v>923</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>713</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>911</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>56</v>
+        <v>293</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>427</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>1397</v>
+        <v>927</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>429</v>
+        <v>295</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>59</v>
+        <v>299</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>913</v>
+        <v>300</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>1782</v>
+        <v>298</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>60</v>
+        <v>301</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>61</v>
+        <v>302</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>914</v>
+        <v>303</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>431</v>
+        <v>304</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>977</v>
+        <v>305</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>63</v>
+        <v>306</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>980</v>
+        <v>593</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>917</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>2758</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>1410</v>
+        <v>928</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>920</v>
+        <v>929</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>1354</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>585</v>
+        <v>931</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>1355</v>
+        <v>313</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>1356</v>
+        <v>310</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>2278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>1358</v>
+        <v>435</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>292</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>922</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>1948</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>1360</v>
+        <v>935</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>923</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>2719</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>1362</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>293</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>2288</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>1518</v>
+        <v>939</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>295</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>299</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>300</v>
+        <v>441</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>298</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>301</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>302</v>
+        <v>940</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>303</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>304</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>305</v>
+        <v>942</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>306</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>593</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>3174</v>
+        <v>943</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>1365</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>592</v>
+        <v>945</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>593</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>928</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>929</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>3203</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>931</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>594</v>
+        <v>952</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>313</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>310</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>596</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>311</v>
+        <v>950</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>597</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>1033</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>2898</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>2737</v>
+        <v>953</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>2303</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>1535</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>1807</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>2308</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>1978</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>3354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>1976</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>939</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>1814</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>1375</v>
+        <v>450</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>1045</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>1376</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>1377</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>1545</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>2319</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>1379</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>942</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>1380</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>1823</v>
+        <v>455</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>943</v>
+        <v>967</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>2769</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>945</v>
+        <v>968</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>2334</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>1991</v>
+        <v>969</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>2333</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>1994</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>1384</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>952</v>
+        <v>25</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>1832</v>
+        <v>998</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>1997</v>
+        <v>973</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>3401</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>1560</v>
+        <v>458</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>2953</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>2450</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>2813</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>953</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>613</v>
+        <v>28</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>2803</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>1395</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>1409</v>
+        <v>977</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>1397</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>2367</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>2355</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>3436</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>2359</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>2978</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>450</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>2995</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>3447</v>
+        <v>981</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>3455</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>2842</v>
+        <v>467</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>3463</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>3017</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>3020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>1077</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>967</v>
+        <v>986</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>2034</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>968</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>1412</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>969</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>1413</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>2384</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>2869</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>25</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>998</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>973</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>2847</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>458</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>2060</v>
+        <v>996</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>2853</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>1879</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>2046</v>
+        <v>36</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>28</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>628</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>1420</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>1883</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>977</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>1422</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>624</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>1423</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>3494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>3498</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>1426</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>2058</v>
+        <v>483</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>1428</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>2896</v>
+        <v>484</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>625</v>
+        <v>485</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>1613</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>3541</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>467</v>
+        <v>122</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>1431</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>3580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>1433</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>1648</v>
+        <v>126</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>2888</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>986</v>
+        <v>128</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>2925</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>636</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>1659</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>1907</v>
+        <v>130</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>638</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>3546</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>3068</v>
+        <v>490</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>3544</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>1914</v>
+        <v>131</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>2914</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>2084</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887">
-        <v>2912</v>
+        <v>492</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888">
-        <v>1444</v>
+        <v>132</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889">
-        <v>2439</v>
+        <v>133</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890">
-        <v>1641</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891">
-        <v>3120</v>
+        <v>494</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892">
-        <v>3127</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893">
-        <v>683</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894">
-        <v>2935</v>
+        <v>135</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895">
-        <v>2448</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896">
-        <v>643</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897">
-        <v>1928</v>
+        <v>307</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898">
-        <v>2127</v>
+        <v>308</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899">
-        <v>2932</v>
+        <v>309</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900">
-        <v>1002</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901">
-        <v>1452</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902">
-        <v>2937</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903">
-        <v>482</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>1123</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905">
-        <v>1454</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906">
-        <v>483</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907">
-        <v>1005</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908">
-        <v>484</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909">
-        <v>485</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>1455</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911">
-        <v>1006</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912">
-        <v>122</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913">
-        <v>1617</v>
+        <v>314</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>1577</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915">
-        <v>2069</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>126</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917">
-        <v>1008</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>128</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919">
-        <v>2073</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>3086</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>1010</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>130</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>1011</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>1012</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>490</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926">
-        <v>1504</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927">
-        <v>131</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>1460</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929">
-        <v>1461</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>492</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931">
-        <v>132</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932">
-        <v>133</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933">
-        <v>3103</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934">
-        <v>494</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935">
-        <v>3096</v>
+        <v>505</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936">
-        <v>1632</v>
+        <v>506</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937">
-        <v>135</v>
+        <v>319</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938">
-        <v>3745</v>
+        <v>507</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939">
-        <v>3254</v>
+        <v>508</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940">
-        <v>307</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941">
-        <v>308</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942">
-        <v>309</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943">
-        <v>1019</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944">
-        <v>1466</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945">
-        <v>1020</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946">
-        <v>1021</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947">
-        <v>1467</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948">
-        <v>2989</v>
+        <v>320</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949">
-        <v>1023</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>586</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951">
-        <v>587</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>588</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>1469</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954">
-        <v>1470</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955">
-        <v>1471</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956">
-        <v>1472</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957">
-        <v>1024</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>1973</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959">
-        <v>314</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960">
-        <v>1474</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961">
-        <v>1790</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962">
-        <v>3002</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>1477</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964">
-        <v>1478</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1">
-      <c r="A966">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1">
-      <c r="A967">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1">
-      <c r="A968">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1">
-      <c r="A969">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1">
-      <c r="A970">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1">
-      <c r="A971">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1">
-      <c r="A973">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1">
-      <c r="A974">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1">
-      <c r="A975">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1">
-      <c r="A977">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1">
-      <c r="A978">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1">
-      <c r="A979">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1">
-      <c r="A980">
-        <v>3994</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1">
-      <c r="A981">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1">
-      <c r="A982">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1">
-      <c r="A986">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1">
-      <c r="A987">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1">
-      <c r="A988">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1">
-      <c r="A989">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1">
-      <c r="A990">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1">
-      <c r="A991">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1">
-      <c r="A992">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1">
-      <c r="A993">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1">
-      <c r="A994">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1">
-      <c r="A995">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1">
-      <c r="A996">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1">
-      <c r="A997">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1">
-      <c r="A998">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1">
-      <c r="A999">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1">
-      <c r="A1000">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1">
-      <c r="A1001">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1">
-      <c r="A1002">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1">
-      <c r="A1003">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1">
-      <c r="A1004">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1">
-      <c r="A1005">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1">
-      <c r="A1006">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1">
-      <c r="A1007">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1">
-      <c r="A1008">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1">
-      <c r="A1010">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1">
-      <c r="A1011">
         <v>2552</v>
       </c>
     </row>
@@ -5461,7 +5228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5492,11 +5259,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
